--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38a82fa773eb48f5/Desktop/internship 2023 project/Titan-internship-project-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048C7699951165BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC39C9C7-6BC7-43B7-97B8-348BB0BBFAE3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC1048C7699951165BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C527579-0F08-48CA-B0D1-8F71B8E19F7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Gold Intake</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>39kg</t>
+  </si>
+  <si>
+    <t>baenchwork</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,6 +185,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -448,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,6 +599,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
